--- a/Docs/МэппингСценариев.xlsx
+++ b/Docs/МэппингСценариев.xlsx
@@ -171,9 +171,6 @@
     <t>определить количество участников</t>
   </si>
   <si>
-    <t>Нажать на кнопку "опубликовать событие"</t>
-  </si>
-  <si>
     <t xml:space="preserve">выбрать в выпадающем списке вид игры </t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>когда заявка будет принята, пользователь может зайти на страницу турнира и посмотреть список участников</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Создать турнир"</t>
   </si>
 </sst>
 </file>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,22 +747,22 @@
         <v>25</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -773,22 +773,22 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="105">
@@ -799,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
